--- a/published-data/fonds-solidarite/fds-2022-05-20/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-20/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -6265,13 +6265,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>29204</v>
+        <v>29205</v>
       </c>
       <c r="D115" t="n">
         <v>4239</v>
       </c>
       <c r="E115" t="n">
-        <v>64730095</v>
+        <v>64734324</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -9376,13 +9376,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>41188</v>
+        <v>41189</v>
       </c>
       <c r="D176" t="n">
         <v>5280</v>
       </c>
       <c r="E176" t="n">
-        <v>86424125</v>
+        <v>86426076</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -36508,13 +36508,13 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>9693</v>
+        <v>9694</v>
       </c>
       <c r="D708" t="n">
         <v>1445</v>
       </c>
       <c r="E708" t="n">
-        <v>31946051</v>
+        <v>31947576</v>
       </c>
       <c r="F708" t="inlineStr">
         <is>
@@ -42220,13 +42220,13 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>17564</v>
+        <v>17565</v>
       </c>
       <c r="D820" t="n">
         <v>2071</v>
       </c>
       <c r="E820" t="n">
-        <v>110684860</v>
+        <v>110687100</v>
       </c>
       <c r="F820" t="inlineStr">
         <is>
@@ -43648,13 +43648,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>21656</v>
+        <v>21657</v>
       </c>
       <c r="D848" t="n">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="E848" t="n">
-        <v>85675719</v>
+        <v>85680790</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108559</v>
+        <v>108567</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>559812551</v>
+        <v>559855378</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182138</v>
+        <v>182151</v>
       </c>
       <c r="D854" t="n">
         <v>17495</v>
       </c>
       <c r="E854" t="n">
-        <v>1647048716</v>
+        <v>1647143711</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60013</v>
+        <v>60018</v>
       </c>
       <c r="D855" t="n">
-        <v>9812</v>
+        <v>9813</v>
       </c>
       <c r="E855" t="n">
-        <v>286694377</v>
+        <v>286904146</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44107,13 +44107,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>23228</v>
+        <v>23230</v>
       </c>
       <c r="D857" t="n">
         <v>4430</v>
       </c>
       <c r="E857" t="n">
-        <v>82711868</v>
+        <v>82719234</v>
       </c>
       <c r="F857" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183823</v>
+        <v>183829</v>
       </c>
       <c r="D858" t="n">
         <v>35381</v>
       </c>
       <c r="E858" t="n">
-        <v>552459072</v>
+        <v>552506866</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51287</v>
+        <v>51290</v>
       </c>
       <c r="D859" t="n">
         <v>6432</v>
       </c>
       <c r="E859" t="n">
-        <v>422946828</v>
+        <v>422983014</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114928</v>
+        <v>114935</v>
       </c>
       <c r="D862" t="n">
         <v>14329</v>
       </c>
       <c r="E862" t="n">
-        <v>418142781</v>
+        <v>418179593</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127478</v>
+        <v>127486</v>
       </c>
       <c r="D887" t="n">
         <v>13774</v>
       </c>
       <c r="E887" t="n">
-        <v>277380405</v>
+        <v>277403228</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -45688,13 +45688,13 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>32735</v>
+        <v>32736</v>
       </c>
       <c r="D888" t="n">
-        <v>3650</v>
+        <v>3651</v>
       </c>
       <c r="E888" t="n">
-        <v>189261111</v>
+        <v>189461111</v>
       </c>
       <c r="F888" t="inlineStr">
         <is>
@@ -46963,13 +46963,13 @@
         </is>
       </c>
       <c r="C913" t="n">
-        <v>22149</v>
+        <v>22150</v>
       </c>
       <c r="D913" t="n">
         <v>2798</v>
       </c>
       <c r="E913" t="n">
-        <v>65000575</v>
+        <v>65002310</v>
       </c>
       <c r="F913" t="inlineStr">
         <is>
@@ -49972,13 +49972,13 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>4756</v>
+        <v>4757</v>
       </c>
       <c r="D972" t="n">
         <v>729</v>
       </c>
       <c r="E972" t="n">
-        <v>11726703</v>
+        <v>11756409</v>
       </c>
       <c r="F972" t="inlineStr">
         <is>
@@ -50023,13 +50023,13 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>11123</v>
+        <v>11125</v>
       </c>
       <c r="D973" t="n">
         <v>1314</v>
       </c>
       <c r="E973" t="n">
-        <v>44077924</v>
+        <v>44114295</v>
       </c>
       <c r="F973" t="inlineStr">
         <is>
@@ -50227,13 +50227,13 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>5363</v>
+        <v>5364</v>
       </c>
       <c r="D977" t="n">
         <v>1136</v>
       </c>
       <c r="E977" t="n">
-        <v>12210515</v>
+        <v>12211202</v>
       </c>
       <c r="F977" t="inlineStr">
         <is>
@@ -52879,13 +52879,13 @@
         </is>
       </c>
       <c r="C1029" t="n">
-        <v>4606</v>
+        <v>4607</v>
       </c>
       <c r="D1029" t="n">
         <v>577</v>
       </c>
       <c r="E1029" t="n">
-        <v>12779933</v>
+        <v>12789933</v>
       </c>
       <c r="F1029" t="inlineStr">
         <is>
@@ -63691,13 +63691,13 @@
         </is>
       </c>
       <c r="C1241" t="n">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="D1241" t="n">
         <v>316</v>
       </c>
       <c r="E1241" t="n">
-        <v>2996501</v>
+        <v>3002156</v>
       </c>
       <c r="F1241" t="inlineStr">
         <is>
